--- a/manual_results.xlsx
+++ b/manual_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,48 +451,40 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Response</t>
+          <t>Response Generated</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Template referred</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3636359</t>
+          <t>3515865</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Delete my account</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Dear insta money team I register insta money app by mistake please deactivate my account</t>
-        </is>
-      </c>
+          <t>My loan was not processed but I should get back the fee that I paid.So please refund my fee.</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Time to generate LLM response: 4.42 seconds
-=== GENERATED EMAIL ===
-Ticket ID: 3636359
-Subject: Delete my account
-Subject: Re: Delete my account - Ticket ID: 3636359
-Dear [Customer Name],
-Thank you for contacting us. We understand you're looking to delete your account.
-We also see you recently inquired about a rejected loan application. According to our records, your loan application was reviewed by our Lending Partner and unfortunately, did not meet the required eligibility criteria. The reason for the rejection was sent to your registered email address and is also available in your application dashboard.
-Please note that the registration fee is non-refundable, as it covers the cost of the credit assessment and verification process.
-Regarding your account deletion request, we need to verify your identity to proceed. Please reply to this email with the following information:
-*   Your full name
-*   Your date of birth
-*   The last four digits of your Social Security number (for verification purposes only)
-Once we verify your information, we will process your account deletion request. Please be aware that deleting your account will remove all associated data.
-If you have any further questions or require additional assistance, please don't hesitate to contact us.
-Sincerely,
-[Your Name/Company Name]
-Customer Support
-=== END OF EMAIL ===
-</t>
+          <t>Dear [Customer Name],
+Thank you for contacting us regarding your refund request. We understand your concern and have reviewed your case.
+According to our records, you submitted a loan application and paid a registration fee of Rs. 199. Unfortunately, your loan application was rejected. However, as per our Terms of Service, the registration fee is non-refundable, even in cases of rejected applications. This fee covers the costs associated with processing your application, including credit evaluation, verification, and system checks carried out by our lending partners.
+We apologize for any inconvenience this may cause and appreciate your understanding in this matter. If you have any further questions or concerns, please do not hesitate to contact us. We are always here to help.
+Best regards,
+Team Instamoney</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>used template from search(rejected_loan_requesting_for_re)</t>
         </is>
       </c>
     </row>

--- a/manual_results.xlsx
+++ b/manual_results.xlsx
@@ -463,28 +463,46 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3515865</t>
+          <t>3648080</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>My loan was not processed but I should get back the fee that I paid.So please refund my fee.</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>Extra money debited</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Extra money debited from my account, please stop auto debit</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Dear [Customer Name],
-Thank you for contacting us regarding your refund request. We understand your concern and have reviewed your case.
-According to our records, you submitted a loan application and paid a registration fee of Rs. 199. Unfortunately, your loan application was rejected. However, as per our Terms of Service, the registration fee is non-refundable, even in cases of rejected applications. This fee covers the costs associated with processing your application, including credit evaluation, verification, and system checks carried out by our lending partners.
-We apologize for any inconvenience this may cause and appreciate your understanding in this matter. If you have any further questions or concerns, please do not hesitate to contact us. We are always here to help.
-Best regards,
-Team Instamoney</t>
+          <t>&lt;html&gt;
+    &lt;head&gt;
+    &lt;/head&gt;
+    &lt;body&gt;
+        &lt;p&gt;Dear Customer,&lt;/p&gt;
+        &lt;br&gt;
+        Thank you for reaching out to InstaMoney!
+        &lt;br&gt;&lt;br&gt;
+        Due to a surge in demand, loan disbursements with our lending partner Innofin Solution P Ltd are taking longer than usual. Please note that the process may take up to 7 working days.
+        &lt;br&gt;&lt;br&gt;
+        We understand the urgency and are actively working to process your request as soon as possible. We sincerely regret any inconvenience this may cause and truly appreciate your patience.
+        &lt;br&gt;&lt;br&gt;
+        Best Regards,&lt;br&gt;
+        Team Instamoney
+        &lt;br&gt;&lt;br&gt;
+        Have a look at our FAQ's &lt;u style="color:blue"&gt;https://bit.ly/2NsxH06&lt;/u&gt;
+        &lt;br&gt;&lt;br&gt;
+        &lt;p style="font-size: 80.95%;"&gt;*This is a system-generated email.&lt;/p&gt;
+    &lt;/body&gt;
+&lt;/html&gt;</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>used template from search(rejected_loan_requesting_for_re)</t>
+          <t>email_responder used (search or fallback)</t>
         </is>
       </c>
     </row>

--- a/manual_results.xlsx
+++ b/manual_results.xlsx
@@ -478,26 +478,14 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>&lt;html&gt;
-    &lt;head&gt;
-    &lt;/head&gt;
-    &lt;body&gt;
-        &lt;p&gt;Dear Customer,&lt;/p&gt;
-        &lt;br&gt;
-        Thank you for reaching out to InstaMoney!
-        &lt;br&gt;&lt;br&gt;
-        Due to a surge in demand, loan disbursements with our lending partner Innofin Solution P Ltd are taking longer than usual. Please note that the process may take up to 7 working days.
-        &lt;br&gt;&lt;br&gt;
-        We understand the urgency and are actively working to process your request as soon as possible. We sincerely regret any inconvenience this may cause and truly appreciate your patience.
-        &lt;br&gt;&lt;br&gt;
-        Best Regards,&lt;br&gt;
-        Team Instamoney
-        &lt;br&gt;&lt;br&gt;
-        Have a look at our FAQ's &lt;u style="color:blue"&gt;https://bit.ly/2NsxH06&lt;/u&gt;
-        &lt;br&gt;&lt;br&gt;
-        &lt;p style="font-size: 80.95%;"&gt;*This is a system-generated email.&lt;/p&gt;
-    &lt;/body&gt;
-&lt;/html&gt;</t>
+          <t>Dear Valued Customer,
+Thank you for contacting InstaMoney regarding your loan application. We appreciate your patience as we work diligently to process your request.
+However, we would like to inform you that due to an increased volume of applications, loan disbursements with our lending partner Innofin Solution P Ltd are currently experiencing longer than usual processing times. We anticipate that your loan may take up to 7 working days to be disbursed.
+We understand the urgency of your situation and are actively working to expedite the process. We sincerely apologize for any inconvenience this may cause and truly appreciate your patience.
+In the meantime, we encourage you to explore our FAQs for any additional information you may need. You can find them at this link: &lt;u style="color:blue"&gt;https://bit.ly/2NsxH06&lt;/u&gt;
+Should you have any further questions or concerns, please do not hesitate to contact us. We are here to help.
+Best Regards,
+Team InstaMoney</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
